--- a/Check.xlsx
+++ b/Check.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$D$1:$D$310</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$D$1:$D$247</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="161">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Отображение раздела новостей (News)</t>
   </si>
   <si>
-    <t>Отображение раздела претензий (Claims)</t>
-  </si>
-  <si>
     <t>Пролистывание (scroll) страницы</t>
   </si>
   <si>
@@ -241,27 +238,12 @@
     <t>Свернуть/развернуть раздел новостей</t>
   </si>
   <si>
-    <t>Свернуть/развернуть раздел претензий</t>
-  </si>
-  <si>
     <t>Нажать на Все новости (ALL NEWS)</t>
   </si>
   <si>
-    <t>Нажать на Все претензии (ALL CLAIMS)</t>
-  </si>
-  <si>
-    <t>Нажатие на + (создание претензии из главной старницы)</t>
-  </si>
-  <si>
     <t>Свернуть/развенуть отдельную новость</t>
   </si>
   <si>
-    <t>Свернуть/развенуть отдельную претензию</t>
-  </si>
-  <si>
-    <t>Открытие претензии из главной страницы</t>
-  </si>
-  <si>
     <t>Отображение страницы новостей</t>
   </si>
   <si>
@@ -469,144 +451,6 @@
     <t>Обновление страницы (если потянуть страницу) в Control panel</t>
   </si>
   <si>
-    <t>Проверка страницы с претензиями (через переход к ALL CLAIMS или навигационнное меню в раздел Claims)</t>
-  </si>
-  <si>
-    <t>Отображение страницы претензий</t>
-  </si>
-  <si>
-    <t>Открытие отдельной претензии</t>
-  </si>
-  <si>
-    <t>Проставить галочку в чекбоксе Open</t>
-  </si>
-  <si>
-    <t>Проставить галочку в чекбоксе In progress</t>
-  </si>
-  <si>
-    <t>Проставить галочку в чекбоксе Executed</t>
-  </si>
-  <si>
-    <t>Проставить галочку в чекбоксе Cancelled</t>
-  </si>
-  <si>
-    <t>Проставить галочки на всех чекбоксах и отфильтровать</t>
-  </si>
-  <si>
-    <t>Оставить чекбоксы пустыми и отфильтровать</t>
-  </si>
-  <si>
-    <t>Нажатие на кнопку обновить (REFRESH), на пустой странице после фильтрации</t>
-  </si>
-  <si>
-    <t>Нажатие на создание претензии (плюс в круге)</t>
-  </si>
-  <si>
-    <t>Свернуть/развернуть поле Executor в Creating Claims</t>
-  </si>
-  <si>
-    <t>Выбрать пользователя в поле Executor в Creating Claims</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Проверка на ограничение колличества символов в поле заголовок (Title) ввод 51 символа</t>
-  </si>
-  <si>
-    <t>нельзя ввести более 50 символов</t>
-  </si>
-  <si>
-    <t>Проверка граничных значений, ввод 49,50 символов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отмена создания претензии, нажатие на кнопку CANCEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возникает предупреждение "The changes won't be saved, do you really want to log out?" и кнопки выбора CANCEL/OK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отмена создания претензии, нажатие на кнопку OK   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возвращение к созданию претензии, нажатие на кнопку CANCEL </t>
-  </si>
-  <si>
-    <t>Нажатие на создание добавление комментария к претензии (Add comment) (плюс в круге)</t>
-  </si>
-  <si>
-    <t>Ввод в поле комментарий (Comment) латинских символов</t>
-  </si>
-  <si>
-    <t>Ввод в поле комментарий (Comment) кирилических, арабских символов</t>
-  </si>
-  <si>
-    <t>Ввод в поле комментарий (Comment) цифр</t>
-  </si>
-  <si>
-    <t>Ввод в поле комментарий (Comment)  спецсимволов</t>
-  </si>
-  <si>
-    <t>Оставление поля комментарий (Comment) пустым</t>
-  </si>
-  <si>
-    <t>Проверка на ограничение колличества символов в поле комментарий (Comment) ввод более 1000 символов</t>
-  </si>
-  <si>
-    <t>Ввод в поле комментарий (Comment) одного символа</t>
-  </si>
-  <si>
-    <t>Заполнение поля комментарий и нажатие на сохранить (SAVE)</t>
-  </si>
-  <si>
-    <t>Отмена создания претензии, нажатие на кнопку CANCEL</t>
-  </si>
-  <si>
-    <t>Создание еще одного комментария</t>
-  </si>
-  <si>
-    <t>Нажатие на редактирование комментария (квадрат с карандашом)</t>
-  </si>
-  <si>
-    <t>Изменение поля комментарий и нажатие на сохранить (SAVE)</t>
-  </si>
-  <si>
-    <t>Изменение открытой претензии, в статаусе open, нажатие на редактирование претензии (квадрат с карандашом)</t>
-  </si>
-  <si>
-    <t>Изменение полей в форме редактирование и сохранение изменений (SAVE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отмена редактирования претензии, нажатие на кнопку CANCEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отмена редактирования претензии, нажатие на кнопку OK   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Возвращение к редактированию претензии, нажатие на кнопку CANCEL </t>
-  </si>
-  <si>
-    <t>Нажатие на значок работы с претензией (значок список с настройками)</t>
-  </si>
-  <si>
-    <t>Нажатие на кнопку сброс претензии (Throw off)</t>
-  </si>
-  <si>
-    <t>Нажатие на кнопку вернуть в работу (take to work)</t>
-  </si>
-  <si>
-    <t>Заполнение поля комментарий и нажатие на сохранить (OK)</t>
-  </si>
-  <si>
-    <t>Нажатие на кнопку выполнить претензию (To execute)</t>
-  </si>
-  <si>
-    <t>Нажатие на кнопку закрыть претензию (Canceled)</t>
-  </si>
-  <si>
-    <t>Complete but crash the app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Претензия создается, но найти ее труднодоступно, в начале списка отображаются старые претензии, нет сортировки </t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверка страницы с цитатами "Love is all" </t>
   </si>
   <si>
@@ -679,9 +523,6 @@
     <t>Открытие бокового меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Открытие разделов бокового меню: Главная, Претензии, Новости, О приложении </t>
-  </si>
-  <si>
     <t>Сворачивание приложения системной кнопкой</t>
   </si>
   <si>
@@ -724,9 +565,6 @@
     <t>Нет возможности поиска</t>
   </si>
   <si>
-    <t>действие выполняется, но приложение зависает, нельзя переключаться между страницами, помогает только закрытие приложения и открытие заново, НО  эта проблема воспроизводится только на эмуляторе, на физическом устройстве все в порядке</t>
-  </si>
-  <si>
     <t>Ввод в поле логин верного логина разным регистром, и корректного пароля</t>
   </si>
   <si>
@@ -742,13 +580,10 @@
     <t>Перереход назад через системную кнопку из раздела новостей</t>
   </si>
   <si>
-    <t>Перереход назад через системную кнопку из раздела претензий</t>
-  </si>
-  <si>
     <t>Выбрать невалидные даты в двух полях (будущее время, 20 лет назад)</t>
   </si>
   <si>
-    <t>Нажатие на фильтрацию претензий (горизонтальные линие)</t>
+    <t xml:space="preserve">Открытие разделов бокового меню: Главная, Новости, О приложении </t>
   </si>
 </sst>
 </file>
@@ -817,7 +652,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,14 +707,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1275,11 +1104,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1371,15 +1337,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1468,6 +1428,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1688,10 +1720,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1754,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -1737,7 +1769,7 @@
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1750,7 +1782,7 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1763,7 +1795,7 @@
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1808,7 @@
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1821,7 @@
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1804,7 +1836,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1820,7 +1852,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1867,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1850,7 +1882,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1865,7 +1897,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1880,7 +1912,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1895,7 +1927,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1908,7 +1940,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1921,7 +1953,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1936,7 +1968,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,9 +1983,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>3</v>
@@ -1962,13 +1994,13 @@
         <v>29</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>3</v>
@@ -1977,13 +2009,13 @@
         <v>29</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -1994,9 +2026,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="1" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -2007,7 +2039,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2020,7 +2052,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2033,7 +2065,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="30" t="s">
         <v>37</v>
       </c>
@@ -2048,11 +2080,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="63" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>3</v>
@@ -2063,35 +2095,29 @@
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="26"/>
+      <c r="C26" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="81"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="64"/>
+      <c r="B28" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>4</v>
@@ -2102,9 +2128,9 @@
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>4</v>
@@ -2115,116 +2141,86 @@
       <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="80"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="64"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="81"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="64"/>
+      <c r="B32" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="1" t="s">
+      <c r="C32" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="80"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="82"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="81"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
-      <c r="B32" s="1" t="s">
+      <c r="C35" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="80"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="64"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="82"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="65"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="86"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="26"/>
-    </row>
-    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
-      <c r="B37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="33"/>
-    </row>
-    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>53</v>
-      </c>
       <c r="C38" s="23" t="s">
         <v>3</v>
       </c>
@@ -2234,9 +2230,9 @@
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>4</v>
@@ -2247,9 +2243,9 @@
       <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>4</v>
@@ -2260,48 +2256,48 @@
       <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="B44" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="26"/>
-    </row>
-    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>4</v>
@@ -2312,9 +2308,9 @@
       <c r="E44" s="26"/>
     </row>
     <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>3</v>
@@ -2325,9 +2321,9 @@
       <c r="E45" s="26"/>
     </row>
     <row r="46" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>4</v>
@@ -2338,9 +2334,9 @@
       <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>4</v>
@@ -2349,13 +2345,13 @@
         <v>14</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>3</v>
@@ -2366,9 +2362,9 @@
       <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>4</v>
@@ -2377,13 +2373,13 @@
         <v>14</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>3</v>
@@ -2394,9 +2390,9 @@
       <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="1" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>22</v>
@@ -2405,13 +2401,13 @@
         <v>14</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>4</v>
@@ -2422,9 +2418,9 @@
       <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>3</v>
@@ -2435,9 +2431,9 @@
       <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>3</v>
@@ -2448,9 +2444,9 @@
       <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>3</v>
@@ -2461,9 +2457,9 @@
       <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>3</v>
@@ -2474,9 +2470,9 @@
       <c r="E56" s="26"/>
     </row>
     <row r="57" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>4</v>
@@ -2487,9 +2483,9 @@
       <c r="E57" s="26"/>
     </row>
     <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>3</v>
@@ -2500,9 +2496,9 @@
       <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>4</v>
@@ -2513,9 +2509,9 @@
       <c r="E59" s="26"/>
     </row>
     <row r="60" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>3</v>
@@ -2526,9 +2522,9 @@
       <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>22</v>
@@ -2539,9 +2535,9 @@
       <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>3</v>
@@ -2552,9 +2548,9 @@
       <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>3</v>
@@ -2565,9 +2561,9 @@
       <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>3</v>
@@ -2578,9 +2574,9 @@
       <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>3</v>
@@ -2591,22 +2587,22 @@
       <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>4</v>
@@ -2617,9 +2613,9 @@
       <c r="E67" s="26"/>
     </row>
     <row r="68" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>3</v>
@@ -2630,9 +2626,9 @@
       <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>3</v>
@@ -2643,9 +2639,9 @@
       <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>3</v>
@@ -2656,9 +2652,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>3</v>
@@ -2669,9 +2665,9 @@
       <c r="E71" s="26"/>
     </row>
     <row r="72" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>4</v>
@@ -2682,9 +2678,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>3</v>
@@ -2693,13 +2689,13 @@
         <v>14</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>4</v>
@@ -2710,22 +2706,22 @@
       <c r="E74" s="26"/>
     </row>
     <row r="75" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>3</v>
@@ -2736,9 +2732,9 @@
       <c r="E76" s="26"/>
     </row>
     <row r="77" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>3</v>
@@ -2749,9 +2745,9 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>4</v>
@@ -2762,9 +2758,9 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>4</v>
@@ -2775,9 +2771,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>3</v>
@@ -2786,13 +2782,13 @@
         <v>14</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>4</v>
@@ -2803,128 +2799,128 @@
       <c r="E81" s="26"/>
     </row>
     <row r="82" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="26"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="61"/>
+      <c r="B84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="26"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="61"/>
+      <c r="B85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="61"/>
+      <c r="B86" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="26"/>
+    </row>
+    <row r="87" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="61"/>
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="26"/>
+    </row>
+    <row r="88" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="61"/>
+      <c r="B88" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="26"/>
-    </row>
-    <row r="84" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
-      <c r="B84" s="1" t="s">
+      <c r="C88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="26"/>
+    </row>
+    <row r="89" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="61"/>
+      <c r="B89" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="26"/>
-    </row>
-    <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
-      <c r="B85" s="1" t="s">
+      <c r="C89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="26"/>
+    </row>
+    <row r="90" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="61"/>
+      <c r="B90" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="26" t="s">
+      <c r="C90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="26"/>
+    </row>
+    <row r="91" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A91" s="61"/>
+      <c r="B91" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="63"/>
-      <c r="B86" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="26"/>
-    </row>
-    <row r="87" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="B87" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="26"/>
-    </row>
-    <row r="88" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
-      <c r="B88" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="26"/>
-    </row>
-    <row r="89" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="B89" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="26"/>
-    </row>
-    <row r="90" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="63"/>
-      <c r="B90" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="26"/>
-    </row>
-    <row r="91" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
-      <c r="B91" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>4</v>
@@ -2933,13 +2929,13 @@
         <v>14</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="63"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>4</v>
@@ -2948,106 +2944,106 @@
         <v>14</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="63"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="26"/>
+    </row>
+    <row r="94" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="61"/>
+      <c r="B94" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="26"/>
+    </row>
+    <row r="95" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A95" s="61"/>
+      <c r="B95" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="26"/>
+    </row>
+    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="61"/>
+      <c r="B96" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="26"/>
+    </row>
+    <row r="97" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A97" s="61"/>
+      <c r="B97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="61"/>
+      <c r="B98" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="26"/>
-    </row>
-    <row r="94" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
-      <c r="B94" s="1" t="s">
+      <c r="C98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="26"/>
+    </row>
+    <row r="99" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="61"/>
+      <c r="B99" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="26"/>
-    </row>
-    <row r="95" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
-      <c r="B95" s="1" t="s">
+      <c r="C99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="26"/>
+    </row>
+    <row r="100" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="62"/>
+      <c r="B100" s="34" t="s">
         <v>115</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="26"/>
-    </row>
-    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
-      <c r="B96" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="26"/>
-    </row>
-    <row r="97" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A97" s="63"/>
-      <c r="B97" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="63"/>
-      <c r="B98" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="26"/>
-    </row>
-    <row r="99" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
-      <c r="B99" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="26"/>
-    </row>
-    <row r="100" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="64"/>
-      <c r="B100" s="34" t="s">
-        <v>121</v>
       </c>
       <c r="C100" s="31" t="s">
         <v>22</v>
@@ -3058,11 +3054,11 @@
       <c r="E100" s="33"/>
     </row>
     <row r="101" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="65" t="s">
-        <v>122</v>
+      <c r="A101" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C101" s="23" t="s">
         <v>3</v>
@@ -3073,12 +3069,12 @@
       <c r="E101" s="25"/>
     </row>
     <row r="102" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="63"/>
+      <c r="A102" s="61"/>
       <c r="B102" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>14</v>
@@ -3086,9 +3082,9 @@
       <c r="E102" s="26"/>
     </row>
     <row r="103" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="63"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>4</v>
@@ -3099,1295 +3095,899 @@
       <c r="E103" s="26"/>
     </row>
     <row r="104" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="63"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="26"/>
+    </row>
+    <row r="105" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="62"/>
+      <c r="B105" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="33"/>
+    </row>
+    <row r="106" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A106" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="43"/>
+    </row>
+    <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="61"/>
+      <c r="B107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="44"/>
+    </row>
+    <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="61"/>
+      <c r="B108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="44"/>
+    </row>
+    <row r="109" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="61"/>
+      <c r="B109" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="44"/>
+    </row>
+    <row r="110" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A110" s="61"/>
+      <c r="B110" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="44"/>
+    </row>
+    <row r="111" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="61"/>
+      <c r="B111" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="26"/>
-    </row>
-    <row r="105" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="63"/>
-      <c r="B105" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="26"/>
-    </row>
-    <row r="106" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="63"/>
-      <c r="B106" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="26"/>
-    </row>
-    <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="63"/>
-      <c r="B107" s="1" t="s">
+      <c r="C111" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A112" s="61"/>
+      <c r="B112" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="26"/>
-    </row>
-    <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="63"/>
-      <c r="B108" s="1" t="s">
+      <c r="C112" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A113" s="61"/>
+      <c r="B113" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="26"/>
-    </row>
-    <row r="109" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="63"/>
-      <c r="B109" s="1" t="s">
+      <c r="C113" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="44"/>
+    </row>
+    <row r="114" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A114" s="61"/>
+      <c r="B114" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="26"/>
-    </row>
-    <row r="110" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="63"/>
-      <c r="B110" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="26"/>
-    </row>
-    <row r="111" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="63"/>
-      <c r="B111" s="1" t="s">
+      <c r="C114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C111" s="5" t="s">
+    </row>
+    <row r="115" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="62"/>
+      <c r="B115" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A116" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="43"/>
+    </row>
+    <row r="117" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="61"/>
+      <c r="B117" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="44"/>
+    </row>
+    <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="61"/>
+      <c r="B118" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="62"/>
+      <c r="B119" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="53"/>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="43"/>
+    </row>
+    <row r="121" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="56"/>
+      <c r="B121" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="44"/>
+    </row>
+    <row r="122" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A122" s="56"/>
+      <c r="B122" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="72"/>
+    </row>
+    <row r="123" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="56"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="73"/>
+    </row>
+    <row r="124" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A124" s="56"/>
+      <c r="B124" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="44"/>
+    </row>
+    <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A125" s="56"/>
+      <c r="B125" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="44"/>
+    </row>
+    <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A126" s="56"/>
+      <c r="B126" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="44"/>
+    </row>
+    <row r="127" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="57"/>
+      <c r="B127" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="53"/>
+    </row>
+    <row r="128" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A128" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="37"/>
+    </row>
+    <row r="129" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A129" s="59"/>
+      <c r="B129" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A130" s="59"/>
+      <c r="B130" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="59"/>
+      <c r="B131" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A132" s="59"/>
+      <c r="B132" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A133" s="59"/>
+      <c r="B133" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A134" s="59"/>
+      <c r="B134" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="59"/>
+      <c r="B135" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="59"/>
+      <c r="B136" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" s="26"/>
-    </row>
-    <row r="112" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A112" s="63"/>
-      <c r="B112" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A113" s="63"/>
-      <c r="B113" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="26"/>
-    </row>
-    <row r="114" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
-      <c r="B114" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="26"/>
-    </row>
-    <row r="115" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
-      <c r="B115" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="26"/>
-    </row>
-    <row r="116" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="63"/>
-      <c r="B116" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="26"/>
-    </row>
-    <row r="117" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
-      <c r="B117" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" s="26"/>
-    </row>
-    <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
-      <c r="B118" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="26"/>
-    </row>
-    <row r="119" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="63"/>
-      <c r="B119" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A120" s="63"/>
-      <c r="B120" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A121" s="63"/>
-      <c r="B121" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="63"/>
-      <c r="B122" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="63"/>
-      <c r="B123" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="26"/>
-    </row>
-    <row r="124" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
-      <c r="B124" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
-      <c r="B125" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="26"/>
-    </row>
-    <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="63"/>
-      <c r="B126" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="26"/>
-    </row>
-    <row r="127" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
-      <c r="B127" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="26"/>
-    </row>
-    <row r="128" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="63"/>
-      <c r="B128" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="26"/>
-    </row>
-    <row r="129" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A129" s="63"/>
-      <c r="B129" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
-      <c r="B130" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="6"/>
-      <c r="E130" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="63"/>
-      <c r="B131" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D131" s="6"/>
-      <c r="E131" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A132" s="63"/>
-      <c r="B132" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="63"/>
-      <c r="B133" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" s="26"/>
-    </row>
-    <row r="134" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A134" s="63"/>
-      <c r="B134" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="63"/>
-      <c r="B135" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A136" s="63"/>
-      <c r="B136" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="63"/>
-      <c r="B137" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="63"/>
-      <c r="B138" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="26"/>
-    </row>
-    <row r="139" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="63"/>
-      <c r="B139" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="26"/>
-    </row>
-    <row r="140" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A140" s="63"/>
-      <c r="B140" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="6"/>
-      <c r="E140" s="26"/>
-    </row>
-    <row r="141" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="63"/>
-      <c r="B141" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" s="26"/>
-    </row>
-    <row r="142" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A142" s="63"/>
-      <c r="B142" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="6"/>
-      <c r="E142" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A143" s="63"/>
-      <c r="B143" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="6"/>
-      <c r="E143" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A144" s="63"/>
-      <c r="B144" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="6"/>
-      <c r="E144" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
-      <c r="B145" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="63"/>
-      <c r="B146" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" s="26"/>
-    </row>
-    <row r="147" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A147" s="63"/>
-      <c r="B147" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" s="6"/>
-      <c r="E147" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="63"/>
-      <c r="B148" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="26"/>
-    </row>
-    <row r="149" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="63"/>
-      <c r="B149" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" s="26"/>
-    </row>
-    <row r="150" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="63"/>
-      <c r="B150" s="1" t="s">
+      <c r="D136" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="60"/>
+      <c r="B137" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" s="26"/>
-    </row>
-    <row r="151" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
-      <c r="B151" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="6"/>
-      <c r="E151" s="26"/>
-    </row>
-    <row r="152" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="63"/>
-      <c r="B152" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="6"/>
-      <c r="E152" s="26"/>
-    </row>
-    <row r="153" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A153" s="63"/>
-      <c r="B153" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="6"/>
-      <c r="E153" s="26"/>
-    </row>
-    <row r="154" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
-      <c r="B154" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="6"/>
-      <c r="E154" s="26"/>
-    </row>
-    <row r="155" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A155" s="63"/>
-      <c r="B155" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="63"/>
-      <c r="B156" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E156" s="26"/>
-    </row>
-    <row r="157" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A157" s="63"/>
-      <c r="B157" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E157" s="26"/>
-    </row>
-    <row r="158" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A158" s="63"/>
-      <c r="B158" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" s="26"/>
-    </row>
-    <row r="159" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="63"/>
-      <c r="B159" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" s="26"/>
-    </row>
-    <row r="160" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="63"/>
-      <c r="B160" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" s="26"/>
-    </row>
-    <row r="161" spans="1:5" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A161" s="63"/>
-      <c r="B161" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E161" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="63"/>
-      <c r="B162" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" s="26"/>
-    </row>
-    <row r="163" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="64"/>
-      <c r="B163" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C163" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" s="33"/>
-    </row>
-    <row r="164" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="B164" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" s="25"/>
-    </row>
-    <row r="165" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="63"/>
-      <c r="B165" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" s="26"/>
-    </row>
-    <row r="166" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
-      <c r="B166" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" s="26"/>
-    </row>
-    <row r="167" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="63"/>
-      <c r="B167" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" s="26"/>
-    </row>
-    <row r="168" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="64"/>
-      <c r="B168" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C168" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D168" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" s="33"/>
-    </row>
-    <row r="169" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="B169" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C169" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D169" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E169" s="45"/>
-    </row>
-    <row r="170" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="63"/>
-      <c r="B170" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D170" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" s="46"/>
-    </row>
-    <row r="171" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="63"/>
-      <c r="B171" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D171" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" s="46"/>
-    </row>
-    <row r="172" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="63"/>
-      <c r="B172" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" s="46"/>
-    </row>
-    <row r="173" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A173" s="63"/>
-      <c r="B173" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E173" s="46"/>
-    </row>
-    <row r="174" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A174" s="63"/>
-      <c r="B174" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E174" s="46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="63"/>
-      <c r="B175" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E175" s="46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="63"/>
-      <c r="B176" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D176" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E176" s="46"/>
-    </row>
-    <row r="177" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A177" s="63"/>
-      <c r="B177" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="64"/>
-      <c r="B178" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C178" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D178" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="51" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A179" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="B179" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="C179" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D179" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179" s="45"/>
-    </row>
-    <row r="180" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="63"/>
-      <c r="B180" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E180" s="46"/>
-    </row>
-    <row r="181" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A181" s="63"/>
-      <c r="B181" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="7"/>
-      <c r="E181" s="46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="64"/>
-      <c r="B182" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C182" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E182" s="55"/>
+      <c r="C137" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="B183" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="C183" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E183" s="45"/>
-    </row>
-    <row r="184" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A184" s="58"/>
-      <c r="B184" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E184" s="46"/>
-    </row>
-    <row r="185" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A185" s="58"/>
-      <c r="B185" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D185" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E185" s="46"/>
-    </row>
-    <row r="186" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="58"/>
-      <c r="B186" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D186" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E186" s="46"/>
-    </row>
-    <row r="187" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A187" s="58"/>
-      <c r="B187" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D187" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E187" s="46"/>
-    </row>
-    <row r="188" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A188" s="58"/>
-      <c r="B188" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D188" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E188" s="46"/>
-    </row>
-    <row r="189" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A189" s="58"/>
-      <c r="B189" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" s="46"/>
-    </row>
-    <row r="190" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="59"/>
-      <c r="B190" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="C190" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D190" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E190" s="55"/>
-    </row>
-    <row r="191" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A191" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E191" s="39"/>
-    </row>
-    <row r="192" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="61"/>
-      <c r="B192" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E192" s="7"/>
-    </row>
-    <row r="193" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A193" s="61"/>
-      <c r="B193" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E193" s="7"/>
-    </row>
-    <row r="194" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A194" s="61"/>
-      <c r="B194" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D194" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E194" s="7"/>
-    </row>
-    <row r="195" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A195" s="61"/>
-      <c r="B195" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D195" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E195" s="7"/>
-    </row>
-    <row r="196" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A196" s="61"/>
-      <c r="B196" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E196" s="7"/>
-    </row>
-    <row r="197" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="61"/>
-      <c r="B197" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D197" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E197" s="7"/>
-    </row>
-    <row r="198" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A198" s="61"/>
-      <c r="B198" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D198" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E198" s="7"/>
-    </row>
-    <row r="199" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A199" s="61"/>
-      <c r="B199" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D199" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E199" s="41" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A200" s="62"/>
-      <c r="B200" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E200" s="7"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
@@ -4725,465 +4325,43 @@
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
     </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
-    </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-    </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-    </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="11"/>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
-    </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
-    </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
-    </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="11"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
-    </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
-    </row>
-    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="11"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="11"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="12"/>
-    </row>
-    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="12"/>
-      <c r="E258" s="12"/>
-    </row>
-    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="11"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="12"/>
-      <c r="E259" s="12"/>
-    </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="11"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="12"/>
-      <c r="E260" s="12"/>
-    </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="11"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
-      <c r="D261" s="12"/>
-      <c r="E261" s="12"/>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="11"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
-      <c r="D262" s="12"/>
-      <c r="E262" s="12"/>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="11"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="11"/>
-      <c r="D263" s="12"/>
-      <c r="E263" s="12"/>
-    </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="11"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="12"/>
-      <c r="E264" s="12"/>
-    </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="12"/>
-      <c r="E265" s="12"/>
-    </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="11"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
-      <c r="D266" s="12"/>
-      <c r="E266" s="12"/>
-    </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="11"/>
-      <c r="D267" s="12"/>
-      <c r="E267" s="12"/>
-    </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="12"/>
-      <c r="E268" s="12"/>
-    </row>
-    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="11"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="D269" s="12"/>
-      <c r="E269" s="12"/>
-    </row>
-    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="12"/>
-      <c r="E270" s="12"/>
-    </row>
-    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="11"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
-      <c r="D271" s="12"/>
-      <c r="E271" s="12"/>
-    </row>
-    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="11"/>
-      <c r="D272" s="12"/>
-      <c r="E272" s="12"/>
-    </row>
-    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="11"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="11"/>
-      <c r="D273" s="12"/>
-      <c r="E273" s="12"/>
-    </row>
-    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="11"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="12"/>
-      <c r="E274" s="12"/>
-    </row>
-    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="11"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="12"/>
-      <c r="E275" s="12"/>
-    </row>
-    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="11"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="12"/>
-      <c r="E276" s="12"/>
-    </row>
-    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="11"/>
-      <c r="B277" s="11"/>
-      <c r="C277" s="11"/>
-      <c r="D277" s="12"/>
-      <c r="E277" s="12"/>
-    </row>
-    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="11"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="11"/>
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
-    </row>
-    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="11"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="11"/>
-      <c r="D279" s="12"/>
-      <c r="E279" s="12"/>
-    </row>
-    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="11"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
-      <c r="D280" s="12"/>
-      <c r="E280" s="12"/>
-    </row>
-    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="11"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="12"/>
-      <c r="E281" s="12"/>
-    </row>
-    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="11"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="11"/>
-      <c r="D282" s="12"/>
-      <c r="E282" s="12"/>
-    </row>
-    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="11"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="11"/>
-      <c r="D283" s="12"/>
-      <c r="E283" s="12"/>
-    </row>
-    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="11"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
-      <c r="D284" s="12"/>
-      <c r="E284" s="12"/>
-    </row>
-    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="11"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="11"/>
-      <c r="D285" s="12"/>
-      <c r="E285" s="12"/>
-    </row>
-    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="11"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
-      <c r="D286" s="12"/>
-      <c r="E286" s="12"/>
-    </row>
-    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="11"/>
-      <c r="B287" s="11"/>
-      <c r="C287" s="11"/>
-      <c r="D287" s="12"/>
-      <c r="E287" s="12"/>
-    </row>
-    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="11"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="11"/>
-      <c r="D288" s="12"/>
-      <c r="E288" s="12"/>
-    </row>
-    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="11"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="11"/>
-      <c r="D289" s="12"/>
-      <c r="E289" s="12"/>
-    </row>
-    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="11"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="11"/>
-      <c r="D290" s="12"/>
-      <c r="E290" s="12"/>
-    </row>
-    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="11"/>
-      <c r="B291" s="11"/>
-      <c r="C291" s="11"/>
-      <c r="D291" s="12"/>
-      <c r="E291" s="12"/>
-    </row>
-    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="11"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="11"/>
-      <c r="D292" s="12"/>
-      <c r="E292" s="12"/>
-    </row>
-    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="11"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="11"/>
-      <c r="D293" s="12"/>
-      <c r="E293" s="12"/>
-    </row>
-    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="11"/>
-      <c r="B294" s="11"/>
-      <c r="C294" s="11"/>
-      <c r="D294" s="12"/>
-      <c r="E294" s="12"/>
-    </row>
-    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="11"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
-      <c r="D295" s="12"/>
-      <c r="E295" s="12"/>
-    </row>
-    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="11"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="11"/>
-      <c r="D296" s="12"/>
-      <c r="E296" s="12"/>
-    </row>
-    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="11"/>
-      <c r="B297" s="11"/>
-      <c r="C297" s="11"/>
-      <c r="D297" s="12"/>
-      <c r="E297" s="12"/>
-    </row>
-    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="11"/>
-      <c r="B298" s="11"/>
-      <c r="C298" s="11"/>
-      <c r="D298" s="12"/>
-      <c r="E298" s="12"/>
-    </row>
-    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="11"/>
-      <c r="B299" s="11"/>
-      <c r="C299" s="11"/>
-      <c r="D299" s="12"/>
-      <c r="E299" s="12"/>
-    </row>
-    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="11"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
-      <c r="D300" s="12"/>
-      <c r="E300" s="12"/>
-    </row>
-    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="11"/>
-      <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
-      <c r="D301" s="12"/>
-      <c r="E301" s="12"/>
-    </row>
-    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="11"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="12"/>
-      <c r="E302" s="12"/>
-    </row>
-    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="11"/>
-      <c r="B303" s="11"/>
-      <c r="C303" s="11"/>
-      <c r="D303" s="12"/>
-      <c r="E303" s="12"/>
-    </row>
-    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="11"/>
-      <c r="B304" s="11"/>
-      <c r="C304" s="11"/>
-      <c r="D304" s="12"/>
-      <c r="E304" s="12"/>
-    </row>
-    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="11"/>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
-      <c r="D305" s="12"/>
-      <c r="E305" s="12"/>
-    </row>
-    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="11"/>
-      <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
-      <c r="D306" s="12"/>
-      <c r="E306" s="12"/>
-    </row>
-    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="11"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="11"/>
-      <c r="D307" s="12"/>
-      <c r="E307" s="12"/>
-    </row>
-    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="11"/>
-      <c r="B308" s="11"/>
-      <c r="C308" s="11"/>
-      <c r="D308" s="12"/>
-      <c r="E308" s="12"/>
-    </row>
-    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="11"/>
-      <c r="B309" s="11"/>
-      <c r="C309" s="11"/>
-      <c r="D309" s="12"/>
-      <c r="E309" s="12"/>
-    </row>
-    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="11"/>
-      <c r="B310" s="11"/>
-      <c r="C310" s="11"/>
-      <c r="D310" s="12"/>
-      <c r="E310" s="12"/>
-    </row>
-    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="11"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
-      <c r="D311" s="12"/>
-      <c r="E311" s="12"/>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D310"/>
+  <autoFilter ref="D1:D247"/>
   <sortState ref="A1:E310">
     <sortCondition ref="C1" customList="High,Medium,Low"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="A183:A190"/>
-    <mergeCell ref="A191:A200"/>
-    <mergeCell ref="A169:A178"/>
-    <mergeCell ref="A179:A182"/>
+  <mergeCells count="28">
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A116:A119"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="A25:A37"/>
     <mergeCell ref="A38:A100"/>
-    <mergeCell ref="A101:A163"/>
-    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A101:A105"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C13:D13 C2:E12 C14:E35 C36:C37 E36:E37 D67 C38:E65 C66:C67 E66:E67 D86 C68:E84 C85:C86 E85:E86 C87:E134 D136 C135:C136 E135:E136 C137:E200">
+    <dataValidation type="list" allowBlank="1" sqref="C13:D13 C2:E12 E124:E137 C32 C35 D67 C38:E65 C66:C67 E66:E67 D86 C68:E84 C85:C86 E85:E86 C124:C137 C87:C122 D124:D137 D87:D122 E87:E122 D35 C14:C26 E35 D14:D26 E14:E26 C28:C30 D28:D30 E28:E30 E32 D32">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
